--- a/spec/fixtures/one_orphan_xlsx.xlsx
+++ b/spec/fixtures/one_orphan_xlsx.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>الرقم المسلسل</t>
   </si>
@@ -109,7 +117,7 @@
     <t>ملاحظات</t>
   </si>
   <si>
-    <t>الاسم </t>
+    <t>الاسم</t>
   </si>
   <si>
     <t>صلة القرابة</t>
@@ -124,7 +132,7 @@
     <t>المدينة</t>
   </si>
   <si>
-    <t>الحي </t>
+    <t>الحي</t>
   </si>
   <si>
     <t>الشارع</t>
@@ -139,7 +147,7 @@
     <t>المدينة</t>
   </si>
   <si>
-    <t>الحي </t>
+    <t>الحي</t>
   </si>
   <si>
     <t>الشارع</t>
@@ -166,9 +174,6 @@
     <t>سبب الوفاة</t>
   </si>
   <si>
-    <t>15/03/2011</t>
-  </si>
-  <si>
     <t>الأم</t>
   </si>
   <si>
@@ -202,7 +207,7 @@
     <t>مدينة حلب</t>
   </si>
   <si>
-    <t>الحي </t>
+    <t>الحي</t>
   </si>
   <si>
     <t>الشارع</t>
@@ -227,41 +232,56 @@
   </si>
   <si>
     <t>ملاحظات</t>
+  </si>
+  <si>
+    <t>متوفى</t>
+  </si>
+  <si>
+    <t>15/03/2018</t>
+  </si>
+  <si>
+    <t>الأب متوفي؟</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -281,8 +301,14 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -299,6 +325,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -311,6 +338,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -325,6 +353,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -337,6 +366,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -349,6 +379,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -361,6 +392,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -373,6 +405,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -383,6 +416,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -395,6 +429,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -409,6 +444,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -421,6 +457,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -435,6 +472,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -449,6 +487,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -463,6 +502,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -475,6 +515,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -487,6 +528,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -501,6 +543,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -515,6 +558,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -527,6 +571,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -539,6 +584,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -551,454 +597,882 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="2" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="2">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="5" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="8" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="9" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="1" borderId="19" applyFont="1" fontId="3" applyNumberFormat="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="3">
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="11.29"/>
-    <col min="2" customWidth="1" max="2" width="15.86"/>
-    <col min="3" customWidth="1" max="3" width="12.43"/>
-    <col min="4" customWidth="1" max="7" width="8.71"/>
-    <col min="8" customWidth="1" max="8" width="14.57"/>
-    <col min="9" customWidth="1" max="9" width="14.29"/>
-    <col min="10" customWidth="1" max="10" width="11.43"/>
-    <col min="11" customWidth="1" max="11" width="10.57"/>
-    <col min="12" customWidth="1" max="15" width="8.71"/>
-    <col min="16" customWidth="1" max="16" width="13.14"/>
-    <col min="17" customWidth="1" max="17" width="8.71"/>
-    <col min="18" customWidth="1" max="18" width="15.0"/>
-    <col min="19" customWidth="1" max="28" width="8.71"/>
-    <col min="29" customWidth="1" max="30" width="13.14"/>
-    <col min="31" customWidth="1" max="31" width="8.71"/>
-    <col min="32" customWidth="1" max="32" width="15.86"/>
-    <col min="33" customWidth="1" max="34" width="9.14"/>
-    <col min="35" customWidth="1" max="37" width="12.0"/>
-    <col min="38" customWidth="1" max="38" width="30.14"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="31" width="13.1640625" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" customWidth="1"/>
+    <col min="34" max="35" width="9.1640625" customWidth="1"/>
+    <col min="36" max="38" width="12" customWidth="1"/>
+    <col min="39" max="39" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="25.5">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:39" ht="25.5" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="2" r="B1">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="3" r="C1">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="4" r="K1">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="35" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="3" r="S1">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="34" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="5" r="AE1">
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="33" t="s">
         <v>5</v>
       </c>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
     </row>
-    <row customHeight="1" r="2" ht="29.25">
-      <c t="s" s="6" r="C2">
+    <row r="2" spans="1:39" ht="29.25" customHeight="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="7" r="D2">
+      <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="8" r="E2">
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="8" r="F2">
+      <c r="F2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="8" r="G2">
+      <c r="H2" s="38" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="7" r="H2">
+      <c r="I2" s="37" t="s">
         <v>11</v>
       </c>
-      <c t="s" s="7" r="I2">
+      <c r="J2" s="37" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="9" r="J2">
+      <c r="K2" s="41" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="6" r="K2">
+      <c r="L2" s="28" t="s">
         <v>14</v>
       </c>
-      <c t="s" s="7" r="L2">
+      <c r="M2" s="37" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="8" r="M2">
+      <c r="N2" s="38" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="8" r="N2">
+      <c r="O2" s="38" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="10" r="O2">
+      <c r="P2" s="39" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="11" r="P2">
+      <c r="Q2" s="36" t="s">
         <v>19</v>
       </c>
-      <c t="s" s="12" r="S2">
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="31" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="13" r="X2">
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="32" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="6" r="AC2">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="14" r="AD2">
+      <c r="AE2" s="29" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="6" r="AE2">
+      <c r="AF2" s="28" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="14" r="AF2">
+      <c r="AG2" s="29" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="6" r="AG2">
+      <c r="AH2" s="28" t="s">
         <v>26</v>
       </c>
-      <c t="s" s="14" r="AH2">
+      <c r="AI2" s="29" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="2" r="AI2">
+      <c r="AJ2" s="30" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="15" r="AJ2">
+      <c r="AK2" s="26" t="s">
         <v>29</v>
       </c>
-      <c t="s" s="15" r="AK2">
+      <c r="AL2" s="26" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="15" r="AL2">
+      <c r="AM2" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" r="3" ht="29.25">
-      <c t="s" s="16" r="P3">
+    <row r="3" spans="1:39" ht="29.25" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="1" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="17" r="Q3">
+      <c r="R3" s="2" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="18" r="R3">
+      <c r="S3" s="3" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="19" r="S3">
+      <c r="T3" s="4" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="20" r="T3">
+      <c r="U3" s="5" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="20" r="U3">
+      <c r="V3" s="5" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="21" r="V3">
+      <c r="W3" s="6" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="22" r="W3">
+      <c r="X3" s="7" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="23" r="X3">
+      <c r="Y3" s="8" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="20" r="Y3">
+      <c r="Z3" s="5" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="20" r="Z3">
+      <c r="AA3" s="5" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="21" r="AA3">
+      <c r="AB3" s="6" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="22" r="AB3">
+      <c r="AC3" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
     </row>
-    <row customHeight="1" r="4" ht="23.25">
-      <c s="24" r="A4">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="25" r="B4">
+    <row r="4" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>45</v>
       </c>
-      <c t="s" s="26" r="C4">
+      <c r="C4" s="11" t="s">
         <v>46</v>
       </c>
-      <c t="s" s="27" r="D4">
+      <c r="D4" s="12" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="28" r="E4">
+      <c r="E4" s="13" t="s">
         <v>48</v>
       </c>
-      <c t="s" s="28" r="F4">
+      <c r="F4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="28" r="G4">
+      <c r="H4" s="13" t="s">
         <v>50</v>
       </c>
-      <c t="s" s="29" r="H4">
+      <c r="I4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="28" r="I4">
+      <c r="K4" s="15" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="30" r="J4">
+      <c r="L4" s="12" t="s">
         <v>53</v>
       </c>
-      <c t="s" s="27" r="K4">
+      <c r="M4" s="13" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="28" r="L4">
+      <c r="N4" s="13" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="28" r="M4">
+      <c r="O4" s="13" t="s">
         <v>56</v>
       </c>
-      <c t="s" s="28" r="N4">
+      <c r="P4" s="12" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="27" r="O4">
+      <c r="Q4" s="16" t="s">
         <v>58</v>
       </c>
-      <c t="s" s="31" r="P4">
+      <c r="R4" s="17" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="32" r="Q4">
+      <c r="S4" s="18">
+        <v>448273</v>
+      </c>
+      <c r="T4" s="19" t="s">
         <v>60</v>
       </c>
-      <c s="33" r="R4">
-        <v>448273.0</v>
-      </c>
-      <c t="s" s="34" r="S4">
+      <c r="U4" s="17" t="s">
         <v>61</v>
       </c>
-      <c t="s" s="32" r="T4">
+      <c r="V4" s="17" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="32" r="U4">
+      <c r="W4" s="17" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="32" r="V4">
+      <c r="X4" s="20"/>
+      <c r="Y4" s="19" t="s">
         <v>64</v>
       </c>
-      <c s="35" r="W4"/>
-      <c t="s" s="34" r="X4">
+      <c r="Z4" s="17" t="s">
         <v>65</v>
       </c>
-      <c t="s" s="32" r="Y4">
+      <c r="AA4" s="17" t="s">
         <v>66</v>
       </c>
-      <c t="s" s="32" r="Z4">
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="22" t="s">
         <v>67</v>
       </c>
-      <c s="36" r="AA4"/>
-      <c t="s" s="37" r="AB4">
+      <c r="AD4" s="23">
+        <v>998716</v>
+      </c>
+      <c r="AE4" s="22" t="s">
         <v>68</v>
       </c>
-      <c s="38" r="AC4">
-        <v>998716.0</v>
-      </c>
-      <c t="s" s="37" r="AD4">
+      <c r="AF4" s="24" t="s">
         <v>69</v>
       </c>
-      <c t="s" s="39" r="AE4">
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="24">
+        <v>7</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="25" t="s">
         <v>70</v>
-      </c>
-      <c s="35" r="AF4"/>
-      <c s="39" r="AG4">
-        <v>7.0</v>
-      </c>
-      <c s="33" r="AH4">
-        <v>0.0</v>
-      </c>
-      <c s="24" r="AI4"/>
-      <c s="24" r="AJ4"/>
-      <c s="24" r="AK4"/>
-      <c t="s" s="40" r="AL4">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC2:AC3"/>
+  <mergeCells count="33">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="AF1:AM1"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AE1:AL1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/spec/fixtures/one_orphan_xlsx.xlsx
+++ b/spec/fixtures/one_orphan_xlsx.xlsx
@@ -237,10 +237,10 @@
     <t>متوفى</t>
   </si>
   <si>
-    <t>15/03/2018</t>
-  </si>
-  <si>
     <t>الأب متوفي؟</t>
+  </si>
+  <si>
+    <t>15/03/2011</t>
   </si>
 </sst>
 </file>
@@ -698,56 +698,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1111,10 +1111,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="25.5" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
@@ -1166,22 +1166,22 @@
     <row r="2" spans="1:39" ht="29.25" customHeight="1">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -1190,19 +1190,19 @@
       <c r="J2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="38" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="39" t="s">
@@ -1213,48 +1213,48 @@
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="41" t="s">
         <v>20</v>
       </c>
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
       <c r="W2" s="27"/>
       <c r="X2" s="27"/>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="42" t="s">
         <v>21</v>
       </c>
       <c r="Z2" s="27"/>
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
       <c r="AC2" s="27"/>
-      <c r="AD2" s="28" t="s">
+      <c r="AD2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AE2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AF2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AI2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AK2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" s="26" t="s">
+      <c r="AL2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="26" t="s">
+      <c r="AM2" s="43" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="43"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
@@ -1351,7 +1351,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>51</v>
@@ -1434,11 +1434,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
     <mergeCell ref="AF1:AM1"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="L1:S1"/>
@@ -1455,18 +1462,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/spec/fixtures/one_orphan_xlsx.xlsx
+++ b/spec/fixtures/one_orphan_xlsx.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>الرقم المسلسل</t>
   </si>
@@ -109,7 +117,7 @@
     <t>ملاحظات</t>
   </si>
   <si>
-    <t>الاسم </t>
+    <t>الاسم</t>
   </si>
   <si>
     <t>صلة القرابة</t>
@@ -124,7 +132,7 @@
     <t>المدينة</t>
   </si>
   <si>
-    <t>الحي </t>
+    <t>الحي</t>
   </si>
   <si>
     <t>الشارع</t>
@@ -139,7 +147,7 @@
     <t>المدينة</t>
   </si>
   <si>
-    <t>الحي </t>
+    <t>الحي</t>
   </si>
   <si>
     <t>الشارع</t>
@@ -166,102 +174,114 @@
     <t>سبب الوفاة</t>
   </si>
   <si>
+    <t>الأم</t>
+  </si>
+  <si>
+    <t>موجودة</t>
+  </si>
+  <si>
+    <t>15/03/2009</t>
+  </si>
+  <si>
+    <t>ذكر</t>
+  </si>
+  <si>
+    <t>معافى</t>
+  </si>
+  <si>
+    <t>الصف الرابع</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>الوصي</t>
+  </si>
+  <si>
+    <t>عم</t>
+  </si>
+  <si>
+    <t>حلب</t>
+  </si>
+  <si>
+    <t>مدينة حلب</t>
+  </si>
+  <si>
+    <t>الحي</t>
+  </si>
+  <si>
+    <t>الشارع</t>
+  </si>
+  <si>
+    <t>حمص</t>
+  </si>
+  <si>
+    <t>مدينة حمص</t>
+  </si>
+  <si>
+    <t>حي</t>
+  </si>
+  <si>
+    <t>تفصيل</t>
+  </si>
+  <si>
+    <t>رقم آخر</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ملاحظات</t>
+  </si>
+  <si>
+    <t>متوفى</t>
+  </si>
+  <si>
+    <t>الأب متوفي؟</t>
+  </si>
+  <si>
     <t>15/03/2011</t>
-  </si>
-  <si>
-    <t>الأم</t>
-  </si>
-  <si>
-    <t>موجودة</t>
-  </si>
-  <si>
-    <t>15/03/2009</t>
-  </si>
-  <si>
-    <t>ذكر</t>
-  </si>
-  <si>
-    <t>معافى</t>
-  </si>
-  <si>
-    <t>الصف الرابع</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>الوصي</t>
-  </si>
-  <si>
-    <t>عم</t>
-  </si>
-  <si>
-    <t>حلب</t>
-  </si>
-  <si>
-    <t>مدينة حلب</t>
-  </si>
-  <si>
-    <t>الحي </t>
-  </si>
-  <si>
-    <t>الشارع</t>
-  </si>
-  <si>
-    <t>حمص</t>
-  </si>
-  <si>
-    <t>مدينة حمص</t>
-  </si>
-  <si>
-    <t>حي</t>
-  </si>
-  <si>
-    <t>تفصيل</t>
-  </si>
-  <si>
-    <t>رقم آخر</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>ملاحظات</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -281,8 +301,14 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -299,6 +325,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -311,6 +338,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -325,6 +353,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -337,6 +366,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -349,6 +379,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -361,6 +392,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -373,6 +405,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -383,6 +416,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -395,6 +429,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -409,6 +444,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -421,6 +457,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -435,6 +472,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -449,6 +487,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -463,6 +502,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -475,6 +515,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -487,6 +528,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -501,6 +543,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -515,6 +558,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -527,6 +571,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -539,6 +584,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -551,454 +597,882 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="2" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="2">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="5" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="8" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="9" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="1" borderId="19" applyFont="1" fontId="3" applyNumberFormat="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="3">
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="11.29"/>
-    <col min="2" customWidth="1" max="2" width="15.86"/>
-    <col min="3" customWidth="1" max="3" width="12.43"/>
-    <col min="4" customWidth="1" max="7" width="8.71"/>
-    <col min="8" customWidth="1" max="8" width="14.57"/>
-    <col min="9" customWidth="1" max="9" width="14.29"/>
-    <col min="10" customWidth="1" max="10" width="11.43"/>
-    <col min="11" customWidth="1" max="11" width="10.57"/>
-    <col min="12" customWidth="1" max="15" width="8.71"/>
-    <col min="16" customWidth="1" max="16" width="13.14"/>
-    <col min="17" customWidth="1" max="17" width="8.71"/>
-    <col min="18" customWidth="1" max="18" width="15.0"/>
-    <col min="19" customWidth="1" max="28" width="8.71"/>
-    <col min="29" customWidth="1" max="30" width="13.14"/>
-    <col min="31" customWidth="1" max="31" width="8.71"/>
-    <col min="32" customWidth="1" max="32" width="15.86"/>
-    <col min="33" customWidth="1" max="34" width="9.14"/>
-    <col min="35" customWidth="1" max="37" width="12.0"/>
-    <col min="38" customWidth="1" max="38" width="30.14"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="31" width="13.1640625" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" customWidth="1"/>
+    <col min="34" max="35" width="9.1640625" customWidth="1"/>
+    <col min="36" max="38" width="12" customWidth="1"/>
+    <col min="39" max="39" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="25.5">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:39" ht="25.5" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="2" r="B1">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="3" r="C1">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="4" r="K1">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="35" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="3" r="S1">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="34" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="5" r="AE1">
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="33" t="s">
         <v>5</v>
       </c>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
     </row>
-    <row customHeight="1" r="2" ht="29.25">
-      <c t="s" s="6" r="C2">
+    <row r="2" spans="1:39" ht="29.25" customHeight="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="38" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="7" r="D2">
+      <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="8" r="E2">
+      <c r="E2" s="29" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="8" r="F2">
+      <c r="F2" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="8" r="G2">
+      <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="7" r="H2">
+      <c r="I2" s="37" t="s">
         <v>11</v>
       </c>
-      <c t="s" s="7" r="I2">
+      <c r="J2" s="37" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="9" r="J2">
+      <c r="K2" s="30" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="6" r="K2">
+      <c r="L2" s="38" t="s">
         <v>14</v>
       </c>
-      <c t="s" s="7" r="L2">
+      <c r="M2" s="37" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="8" r="M2">
+      <c r="N2" s="29" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="8" r="N2">
+      <c r="O2" s="29" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="10" r="O2">
+      <c r="P2" s="39" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="11" r="P2">
+      <c r="Q2" s="36" t="s">
         <v>19</v>
       </c>
-      <c t="s" s="12" r="S2">
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="41" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="13" r="X2">
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="42" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="6" r="AC2">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="38" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="14" r="AD2">
+      <c r="AE2" s="40" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="6" r="AE2">
+      <c r="AF2" s="38" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="14" r="AF2">
+      <c r="AG2" s="40" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="6" r="AG2">
+      <c r="AH2" s="38" t="s">
         <v>26</v>
       </c>
-      <c t="s" s="14" r="AH2">
+      <c r="AI2" s="40" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="2" r="AI2">
+      <c r="AJ2" s="26" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="15" r="AJ2">
+      <c r="AK2" s="43" t="s">
         <v>29</v>
       </c>
-      <c t="s" s="15" r="AK2">
+      <c r="AL2" s="43" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="15" r="AL2">
+      <c r="AM2" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" r="3" ht="29.25">
-      <c t="s" s="16" r="P3">
+    <row r="3" spans="1:39" ht="29.25" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="1" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="17" r="Q3">
+      <c r="R3" s="2" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="18" r="R3">
+      <c r="S3" s="3" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="19" r="S3">
+      <c r="T3" s="4" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="20" r="T3">
+      <c r="U3" s="5" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="20" r="U3">
+      <c r="V3" s="5" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="21" r="V3">
+      <c r="W3" s="6" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="22" r="W3">
+      <c r="X3" s="7" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="23" r="X3">
+      <c r="Y3" s="8" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="20" r="Y3">
+      <c r="Z3" s="5" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="20" r="Z3">
+      <c r="AA3" s="5" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="21" r="AA3">
+      <c r="AB3" s="6" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="22" r="AB3">
+      <c r="AC3" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
     </row>
-    <row customHeight="1" r="4" ht="23.25">
-      <c s="24" r="A4">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="25" r="B4">
+    <row r="4" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>45</v>
       </c>
-      <c t="s" s="26" r="C4">
+      <c r="C4" s="11" t="s">
         <v>46</v>
       </c>
-      <c t="s" s="27" r="D4">
+      <c r="D4" s="12" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="28" r="E4">
+      <c r="E4" s="13" t="s">
         <v>48</v>
       </c>
-      <c t="s" s="28" r="F4">
+      <c r="F4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="28" r="G4">
+      <c r="H4" s="13" t="s">
         <v>50</v>
       </c>
-      <c t="s" s="29" r="H4">
+      <c r="I4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="28" r="I4">
+      <c r="K4" s="15" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="30" r="J4">
+      <c r="L4" s="12" t="s">
         <v>53</v>
       </c>
-      <c t="s" s="27" r="K4">
+      <c r="M4" s="13" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="28" r="L4">
+      <c r="N4" s="13" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="28" r="M4">
+      <c r="O4" s="13" t="s">
         <v>56</v>
       </c>
-      <c t="s" s="28" r="N4">
+      <c r="P4" s="12" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="27" r="O4">
+      <c r="Q4" s="16" t="s">
         <v>58</v>
       </c>
-      <c t="s" s="31" r="P4">
+      <c r="R4" s="17" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="32" r="Q4">
+      <c r="S4" s="18">
+        <v>448273</v>
+      </c>
+      <c r="T4" s="19" t="s">
         <v>60</v>
       </c>
-      <c s="33" r="R4">
-        <v>448273.0</v>
-      </c>
-      <c t="s" s="34" r="S4">
+      <c r="U4" s="17" t="s">
         <v>61</v>
       </c>
-      <c t="s" s="32" r="T4">
+      <c r="V4" s="17" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="32" r="U4">
+      <c r="W4" s="17" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="32" r="V4">
+      <c r="X4" s="20"/>
+      <c r="Y4" s="19" t="s">
         <v>64</v>
       </c>
-      <c s="35" r="W4"/>
-      <c t="s" s="34" r="X4">
+      <c r="Z4" s="17" t="s">
         <v>65</v>
       </c>
-      <c t="s" s="32" r="Y4">
+      <c r="AA4" s="17" t="s">
         <v>66</v>
       </c>
-      <c t="s" s="32" r="Z4">
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="22" t="s">
         <v>67</v>
       </c>
-      <c s="36" r="AA4"/>
-      <c t="s" s="37" r="AB4">
+      <c r="AD4" s="23">
+        <v>998716</v>
+      </c>
+      <c r="AE4" s="22" t="s">
         <v>68</v>
       </c>
-      <c s="38" r="AC4">
-        <v>998716.0</v>
-      </c>
-      <c t="s" s="37" r="AD4">
+      <c r="AF4" s="24" t="s">
         <v>69</v>
       </c>
-      <c t="s" s="39" r="AE4">
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="24">
+        <v>7</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="25" t="s">
         <v>70</v>
-      </c>
-      <c s="35" r="AF4"/>
-      <c s="39" r="AG4">
-        <v>7.0</v>
-      </c>
-      <c s="33" r="AH4">
-        <v>0.0</v>
-      </c>
-      <c s="24" r="AI4"/>
-      <c s="24" r="AJ4"/>
-      <c s="24" r="AK4"/>
-      <c t="s" s="40" r="AL4">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AE1:AL1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AF1:AM1"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T1:AE1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/spec/fixtures/one_orphan_xlsx.xlsx
+++ b/spec/fixtures/one_orphan_xlsx.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
@@ -159,9 +159,6 @@
     <t>الطفل</t>
   </si>
   <si>
-    <t>الأب</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>15/03/2011</t>
+  </si>
+  <si>
+    <t>John Smith</t>
   </si>
 </sst>
 </file>
@@ -698,16 +698,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -715,39 +748,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1111,10 +1111,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="25.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
@@ -1166,22 +1166,22 @@
     <row r="2" spans="1:39" ht="29.25" customHeight="1">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="38" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -1190,19 +1190,19 @@
       <c r="J2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="38" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="39" t="s">
@@ -1213,48 +1213,48 @@
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="31" t="s">
         <v>20</v>
       </c>
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
       <c r="W2" s="27"/>
       <c r="X2" s="27"/>
-      <c r="Y2" s="42" t="s">
+      <c r="Y2" s="32" t="s">
         <v>21</v>
       </c>
       <c r="Z2" s="27"/>
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
       <c r="AC2" s="27"/>
-      <c r="AD2" s="38" t="s">
+      <c r="AD2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="40" t="s">
+      <c r="AE2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AF2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="40" t="s">
+      <c r="AG2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="38" t="s">
+      <c r="AH2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="40" t="s">
+      <c r="AI2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="AJ2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AK2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" s="43" t="s">
+      <c r="AL2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="32"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
@@ -1333,90 +1333,90 @@
         <v>45</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="Q4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="R4" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="S4" s="18">
         <v>448273</v>
       </c>
       <c r="T4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="V4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="W4" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="X4" s="20"/>
       <c r="Y4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="AA4" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="AB4" s="21"/>
       <c r="AC4" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD4" s="23">
         <v>998716</v>
       </c>
       <c r="AE4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF4" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="AF4" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="AG4" s="20"/>
       <c r="AH4" s="24">
@@ -1429,23 +1429,16 @@
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AF1:AM1"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="L1:S1"/>
@@ -1462,11 +1455,18 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/spec/fixtures/one_orphan_xlsx.xlsx
+++ b/spec/fixtures/one_orphan_xlsx.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="9360" yWindow="10320" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="مكفول_خرجيا">Lookups!$G$2:$G$3</definedName>
     <definedName name="يذهب_للمدرسة">Lookups!$J$2:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>المهنة</t>
   </si>
@@ -280,7 +280,7 @@
     <t>اسم العائلة</t>
   </si>
   <si>
-    <t>محمد</t>
+    <t>نور الدين</t>
   </si>
   <si>
     <t>نجار</t>
@@ -310,10 +310,7 @@
     <t>skype</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Doe</t>
+    <t>Name1</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1017,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1042,8 +1039,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,6 +1090,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,6 +1179,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1183,6 +1204,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1193,6 +1217,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1253,6 +1283,108 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1268,18 +1400,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1289,100 +1409,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1"/>
     <cellStyle name="Normal 11" xfId="2"/>
@@ -1701,13 +1743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1715,200 +1757,200 @@
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="60"/>
-    <col min="10" max="10" width="12.83203125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="64"/>
+    <col min="10" max="10" width="12.83203125" style="70" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="65" customWidth="1"/>
-    <col min="14" max="15" width="8.83203125" style="60"/>
-    <col min="17" max="17" width="8.83203125" style="60"/>
+    <col min="13" max="13" width="12.83203125" style="70" customWidth="1"/>
+    <col min="14" max="15" width="8.83203125" style="64"/>
+    <col min="17" max="17" width="8.83203125" style="64"/>
     <col min="18" max="18" width="13.1640625" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="60"/>
-    <col min="20" max="20" width="15" style="77" customWidth="1"/>
-    <col min="21" max="21" width="14.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" style="60"/>
-    <col min="23" max="23" width="10.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" style="60"/>
-    <col min="28" max="28" width="8.83203125" style="60"/>
-    <col min="31" max="31" width="18.1640625" style="77" customWidth="1"/>
-    <col min="32" max="32" width="13.1640625" style="77" customWidth="1"/>
-    <col min="33" max="33" width="8.83203125" style="60"/>
+    <col min="19" max="19" width="8.83203125" style="64"/>
+    <col min="20" max="20" width="15" style="84" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" style="64"/>
+    <col min="23" max="23" width="10.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" style="64"/>
+    <col min="28" max="28" width="8.83203125" style="64"/>
+    <col min="31" max="31" width="18.1640625" style="84" customWidth="1"/>
+    <col min="32" max="32" width="13.1640625" style="84" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="64"/>
     <col min="34" max="34" width="15.83203125" customWidth="1"/>
-    <col min="35" max="36" width="9.1640625" style="77" customWidth="1"/>
+    <col min="35" max="36" width="9.1640625" style="84" customWidth="1"/>
     <col min="37" max="39" width="12" customWidth="1"/>
     <col min="40" max="40" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="96" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="117" t="s">
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="101" t="s">
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
-      <c r="AN1" s="103"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="98"/>
     </row>
     <row r="2" spans="1:40" s="7" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="99" t="s">
+      <c r="A2" s="129"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="K2" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="122" t="s">
+      <c r="L2" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="124" t="s">
+      <c r="M2" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="94" t="s">
+      <c r="N2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="92" t="s">
+      <c r="O2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="92" t="s">
+      <c r="P2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="110" t="s">
+      <c r="Q2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="126" t="s">
+      <c r="R2" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="127"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="118" t="s">
+      <c r="S2" s="118"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121" t="s">
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="108" t="s">
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="104" t="s">
+      <c r="AF2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="99" t="s">
+      <c r="AG2" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="90" t="s">
+      <c r="AH2" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="108" t="s">
+      <c r="AI2" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="104" t="s">
+      <c r="AJ2" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AK2" s="106" t="s">
+      <c r="AK2" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="112" t="s">
+      <c r="AL2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="112" t="s">
+      <c r="AM2" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="112" t="s">
+      <c r="AN2" s="94" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="7" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A3" s="89"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="111"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="127"/>
       <c r="R3" s="8" t="s">
         <v>30</v>
       </c>
@@ -1948,328 +1990,432 @@
       <c r="AD3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="107"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="132"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="J4" s="67">
+        <v>40913</v>
+      </c>
+      <c r="K4" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="75">
         <v>40910</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="71" t="s">
+      <c r="P4" s="49"/>
+      <c r="Q4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="74">
+      <c r="T4" s="81">
         <v>5445489</v>
       </c>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="67" t="s">
+      <c r="W4" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="X4" s="67" t="s">
+      <c r="X4" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" s="44" t="s">
+      <c r="Y4" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="Z4" s="79" t="s">
+      <c r="Z4" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="67" t="s">
+      <c r="AA4" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="AB4" s="67" t="s">
+      <c r="AB4" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="82">
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="89">
         <v>963943235556</v>
       </c>
-      <c r="AF4" s="85" t="s">
+      <c r="AF4" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AG4" s="86" t="s">
+      <c r="AG4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="82">
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="89">
         <v>2</v>
       </c>
-      <c r="AJ4" s="85">
+      <c r="AJ4" s="92">
         <v>1</v>
       </c>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="48"/>
     </row>
     <row r="5" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="17"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="26"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="23"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="24"/>
       <c r="AE5" s="29"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
       <c r="AM5" s="32"/>
-    </row>
-    <row r="6" spans="1:40" s="13" customFormat="1" ht="23.25" customHeight="1">
+      <c r="AN5" s="33"/>
+    </row>
+    <row r="6" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="26"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="23"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
       <c r="AM6" s="32"/>
+      <c r="AN6" s="33"/>
     </row>
     <row r="7" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="50"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="75"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="30"/>
       <c r="AJ7" s="32"/>
       <c r="AK7" s="32"/>
       <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-    </row>
-    <row r="8" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="AM7" s="33"/>
+    </row>
+    <row r="8" spans="1:40" s="13" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="18"/>
       <c r="B8" s="50"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="75"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="27"/>
       <c r="AJ8" s="32"/>
       <c r="AK8" s="32"/>
       <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
+      <c r="AM8" s="33"/>
     </row>
     <row r="9" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="51"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="33"/>
+    </row>
+    <row r="10" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
+    </row>
+    <row r="11" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="34">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="B1:B3"/>
@@ -2286,63 +2432,45 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E1048576 D5:D9 E2:E4 E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E1048576 D7:D11 E2:E6 E12">
       <formula1>ابن_شهيد</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576 F5:F9 G2:G4 G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G1048576 F7:F11 G2:G6 G12">
       <formula1>الأب_متوفي</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14:L1048576 K5:K9 L2:L4 L10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16:L1048576 K7:K11 L2:L6 L12">
       <formula1>الأم_موجودة</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14:N1048576 M5:M9 N1:N4 N10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16:N1048576 M7:M11 N1:N6 N12">
       <formula1>الجنس</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14:O1048576 N5:N9 O1:O4 O10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O16:O1048576 N7:N11 O1:O6 O12">
       <formula1>الحالة_الصحية</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q14:Q1048576 P5:P9 Q1:Q4 Q10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q16:Q1048576 P7:P11 Q1:Q6 Q12">
       <formula1>يذهب_للمدرسة</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U14:U1048576 Z14:Z1048576 T5:T9 U1:U4 U10 Y5:Y9 Z1:Z4 Z10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U16:U1048576 Z16:Z1048576 T7:T11 U1:U6 U12 Y7:Y11 Z1:Z6 Z12">
       <formula1>المحافظة</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG14:AG1048576 AF5:AF9 AG1:AG4 AG10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG16:AG1048576 AF7:AF11 AG1:AG6 AG12">
       <formula1>مكفول_خارجيا</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4 K14:K1048576 C1 B14:D1048576 C2:D4 J5:J9 K2:K4 K10 A5:C9 B1:B4 B10:D10">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:R6 K16:K1048576 C1 B16:D1048576 C2:D6 J7:J11 K2:K6 K12 A7:C11 B1:B6 B12:D12">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J1048576 I5:I9 J10 J2:J3">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J1048576 I7:I11 J12 J2:J4 J6">
       <formula1>34700</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14:M1048576 L5:L9 M1:M4 M10">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16:M1048576 L7:L11 M1:M6 M12">
       <formula1>33970</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:T1048576 S5:S9 T1:T4 T10">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T16:T1048576 S7:S11 T1:T6 T12">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI14:AJ1048576 AH5:AI9 AI1:AJ4 AI10:AJ10">
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI16:AJ1048576 AH7:AI11 AI1:AJ6 AI12:AJ12">
       <formula1>20</formula1>
     </dataValidation>
   </dataValidations>
@@ -2355,49 +2483,49 @@
           <x14:formula1>
             <xm:f>Lookups!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G4 G10:G1048576 F5:F9</xm:sqref>
+          <xm:sqref>G1:G6 G12:G1048576 F7:F11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookups!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I4 I10:I1048576 H5:H9</xm:sqref>
+          <xm:sqref>I1:I6 I12:I1048576 H7:H11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookups!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:N4 N10:N1048576 M5:M9</xm:sqref>
+          <xm:sqref>N1:N6 N12:N1048576 M7:M11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookups!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P1:P4 P10:P1048576 O5:O9</xm:sqref>
+          <xm:sqref>P1:P6 P12:P1048576 O7:O11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookups!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>S1:S4 S10:S1048576 R5:R9</xm:sqref>
+          <xm:sqref>S1:S6 S12:S1048576 R7:R11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookups!$F$2:$F$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AB1:AB4 AB10:AB1048576 V5:V9 W1:W4 W10:W1048576 AA5:AA9</xm:sqref>
+          <xm:sqref>AB1:AB6 AB12:AB1048576 V7:V11 W1:W6 W12:W1048576 AA7:AA11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookups!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>AI1:AI4 AI10:AI1048576 AH5:AH9</xm:sqref>
+          <xm:sqref>AI1:AI6 AI12:AI1048576 AH7:AH11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookups!$H$2:$H$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C4 C10:C1048576 B5:B9</xm:sqref>
+          <xm:sqref>C1:C6 C12:C1048576 B7:B11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2457,31 +2585,31 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="44" t="s">
         <v>77</v>
       </c>
       <c r="J2" t="s">
@@ -2489,48 +2617,48 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44" t="s">
         <v>67</v>
       </c>
       <c r="I4" t="s">
@@ -2538,240 +2666,240 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="44"/>
+      <c r="H6" s="44" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43" t="s">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43" t="s">
+      <c r="G11" s="44"/>
+      <c r="H11" s="44" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43" t="s">
+      <c r="G12" s="44"/>
+      <c r="H12" s="44" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:36">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="D19" s="60"/>
-      <c r="I19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="AA19" s="60"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="60"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
+      <c r="B19" s="53"/>
+      <c r="D19" s="64"/>
+      <c r="I19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="64"/>
+      <c r="AH19" s="84"/>
+      <c r="AI19" s="84"/>
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="D20" s="60"/>
-      <c r="I20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="60"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
+      <c r="B20" s="54"/>
+      <c r="D20" s="64"/>
+      <c r="I20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="64"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
     </row>
     <row r="21" spans="1:36">
-      <c r="E21" s="60"/>
-      <c r="J21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="60"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="77"/>
+      <c r="E21" s="64"/>
+      <c r="J21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="64"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
     </row>
   </sheetData>
   <dataValidations count="13">
